--- a/src/test/resources/io.dingodb.test/testdata/txnbtreecases/dql/casegroup1/sql_dql_cases1_txnbtree.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/txnbtreecases/dql/casegroup1/sql_dql_cases1_txnbtree.xlsx
@@ -21414,7 +21414,7 @@
   <dimension ref="A1:K1795"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1764" workbookViewId="0">
-      <selection activeCell="I1774" sqref="I1774"/>
+      <selection activeCell="C1798" sqref="C1798"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -71697,7 +71697,7 @@
         <v>5205</v>
       </c>
       <c r="B1792" s="12" t="s">
-        <v>2906</v>
+        <v>34</v>
       </c>
       <c r="C1792" s="12" t="s">
         <v>3399</v>
@@ -71730,7 +71730,7 @@
         <v>5206</v>
       </c>
       <c r="B1793" s="12" t="s">
-        <v>2906</v>
+        <v>34</v>
       </c>
       <c r="C1793" s="12" t="s">
         <v>3405</v>
@@ -71763,7 +71763,7 @@
         <v>5207</v>
       </c>
       <c r="B1794" s="12" t="s">
-        <v>2906</v>
+        <v>34</v>
       </c>
       <c r="C1794" s="12" t="s">
         <v>3409</v>
@@ -71796,7 +71796,7 @@
         <v>5208</v>
       </c>
       <c r="B1795" s="12" t="s">
-        <v>2906</v>
+        <v>34</v>
       </c>
       <c r="C1795" s="12" t="s">
         <v>3411</v>

--- a/src/test/resources/io.dingodb.test/testdata/txnbtreecases/dql/casegroup1/sql_dql_cases1_txnbtree.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/txnbtreecases/dql/casegroup1/sql_dql_cases1_txnbtree.xlsx
@@ -21070,7 +21070,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -21080,6 +21080,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -21096,7 +21102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -21110,6 +21116,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -21413,8 +21420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1795"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1764" workbookViewId="0">
-      <selection activeCell="C1798" sqref="C1798"/>
+    <sheetView tabSelected="1" topLeftCell="A1437" workbookViewId="0">
+      <selection activeCell="A1455" sqref="A1455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -61438,11 +61445,11 @@
       </c>
     </row>
     <row r="1455" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1455" s="1" t="s">
+      <c r="A1455" s="13" t="s">
         <v>4868</v>
       </c>
       <c r="B1455" s="4" t="s">
-        <v>34</v>
+        <v>2906</v>
       </c>
       <c r="C1455" s="1" t="s">
         <v>2512</v>

--- a/src/test/resources/io.dingodb.test/testdata/txnbtreecases/dql/casegroup1/sql_dql_cases1_txnbtree.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/txnbtreecases/dql/casegroup1/sql_dql_cases1_txnbtree.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15594" uniqueCount="5970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15568" uniqueCount="5970">
   <si>
     <t>TestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -21420,8 +21420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1795"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1437" workbookViewId="0">
-      <selection activeCell="A1455" sqref="A1455"/>
+    <sheetView tabSelected="1" topLeftCell="A1566" workbookViewId="0">
+      <selection activeCell="H1583" sqref="H1583"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21432,7 +21432,7 @@
     <col min="4" max="4" width="10.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="97.25" style="1" customWidth="1"/>
     <col min="10" max="10" width="30.125" style="1" customWidth="1"/>
@@ -64357,9 +64357,7 @@
       <c r="G1546" s="1" t="s">
         <v>2757</v>
       </c>
-      <c r="H1546" s="1" t="s">
-        <v>4958</v>
-      </c>
+      <c r="H1546" s="5"/>
       <c r="I1546" s="1" t="s">
         <v>2759</v>
       </c>
@@ -64392,9 +64390,7 @@
       <c r="G1547" s="1" t="s">
         <v>2758</v>
       </c>
-      <c r="H1547" s="1" t="s">
-        <v>4958</v>
-      </c>
+      <c r="H1547" s="5"/>
       <c r="I1547" s="1" t="s">
         <v>2760</v>
       </c>
@@ -64459,9 +64455,7 @@
       <c r="G1549" s="1" t="s">
         <v>2766</v>
       </c>
-      <c r="H1549" s="1" t="s">
-        <v>4961</v>
-      </c>
+      <c r="H1549" s="5"/>
       <c r="I1549" s="1" t="s">
         <v>2769</v>
       </c>
@@ -64494,9 +64488,7 @@
       <c r="G1550" s="1" t="s">
         <v>2767</v>
       </c>
-      <c r="H1550" s="1" t="s">
-        <v>4961</v>
-      </c>
+      <c r="H1550" s="5"/>
       <c r="I1550" s="1" t="s">
         <v>2770</v>
       </c>
@@ -64593,9 +64585,7 @@
       <c r="G1553" s="1" t="s">
         <v>2783</v>
       </c>
-      <c r="H1553" s="1" t="s">
-        <v>4965</v>
-      </c>
+      <c r="H1553" s="5"/>
       <c r="I1553" s="1" t="s">
         <v>2789</v>
       </c>
@@ -64628,9 +64618,7 @@
       <c r="G1554" s="1" t="s">
         <v>2784</v>
       </c>
-      <c r="H1554" s="1" t="s">
-        <v>4965</v>
-      </c>
+      <c r="H1554" s="5"/>
       <c r="I1554" s="1" t="s">
         <v>2790</v>
       </c>
@@ -64663,9 +64651,7 @@
       <c r="G1555" s="1" t="s">
         <v>2785</v>
       </c>
-      <c r="H1555" s="1" t="s">
-        <v>4965</v>
-      </c>
+      <c r="H1555" s="5"/>
       <c r="I1555" s="1" t="s">
         <v>2791</v>
       </c>
@@ -64698,9 +64684,7 @@
       <c r="G1556" s="1" t="s">
         <v>2786</v>
       </c>
-      <c r="H1556" s="1" t="s">
-        <v>4965</v>
-      </c>
+      <c r="H1556" s="5"/>
       <c r="I1556" s="1" t="s">
         <v>2792</v>
       </c>
@@ -64733,9 +64717,7 @@
       <c r="G1557" s="1" t="s">
         <v>2787</v>
       </c>
-      <c r="H1557" s="1" t="s">
-        <v>4965</v>
-      </c>
+      <c r="H1557" s="5"/>
       <c r="I1557" s="1" t="s">
         <v>2793</v>
       </c>
@@ -64800,9 +64782,7 @@
       <c r="G1559" s="1" t="s">
         <v>2797</v>
       </c>
-      <c r="H1559" s="1" t="s">
-        <v>4971</v>
-      </c>
+      <c r="H1559" s="5"/>
       <c r="I1559" s="1" t="s">
         <v>2801</v>
       </c>
@@ -64835,9 +64815,7 @@
       <c r="G1560" s="1" t="s">
         <v>2798</v>
       </c>
-      <c r="H1560" s="1" t="s">
-        <v>4971</v>
-      </c>
+      <c r="H1560" s="5"/>
       <c r="I1560" s="1" t="s">
         <v>2803</v>
       </c>
@@ -64870,9 +64848,7 @@
       <c r="G1561" s="1" t="s">
         <v>2799</v>
       </c>
-      <c r="H1561" s="1" t="s">
-        <v>4971</v>
-      </c>
+      <c r="H1561" s="5"/>
       <c r="I1561" s="1" t="s">
         <v>2804</v>
       </c>
@@ -64905,9 +64881,7 @@
       <c r="G1562" s="1" t="s">
         <v>2800</v>
       </c>
-      <c r="H1562" s="1" t="s">
-        <v>4971</v>
-      </c>
+      <c r="H1562" s="5"/>
       <c r="I1562" s="1" t="s">
         <v>2805</v>
       </c>
@@ -64972,9 +64946,7 @@
       <c r="G1564" s="1" t="s">
         <v>2809</v>
       </c>
-      <c r="H1564" s="1" t="s">
-        <v>4976</v>
-      </c>
+      <c r="H1564" s="5"/>
       <c r="I1564" s="1" t="s">
         <v>2812</v>
       </c>
@@ -65007,9 +64979,7 @@
       <c r="G1565" s="1" t="s">
         <v>2810</v>
       </c>
-      <c r="H1565" s="1" t="s">
-        <v>4976</v>
-      </c>
+      <c r="H1565" s="5"/>
       <c r="I1565" s="1" t="s">
         <v>2813</v>
       </c>
@@ -65074,9 +65044,7 @@
       <c r="G1567" s="1" t="s">
         <v>2816</v>
       </c>
-      <c r="H1567" s="1" t="s">
-        <v>4979</v>
-      </c>
+      <c r="H1567" s="5"/>
       <c r="I1567" s="1" t="s">
         <v>2819</v>
       </c>
@@ -65109,9 +65077,7 @@
       <c r="G1568" s="1" t="s">
         <v>2821</v>
       </c>
-      <c r="H1568" s="1" t="s">
-        <v>4965</v>
-      </c>
+      <c r="H1568" s="5"/>
       <c r="I1568" s="1" t="s">
         <v>2822</v>
       </c>
@@ -65144,9 +65110,7 @@
       <c r="G1569" s="1" t="s">
         <v>2831</v>
       </c>
-      <c r="H1569" s="1" t="s">
-        <v>4958</v>
-      </c>
+      <c r="H1569" s="5"/>
       <c r="I1569" s="1" t="s">
         <v>2830</v>
       </c>
@@ -65179,9 +65143,7 @@
       <c r="G1570" s="1" t="s">
         <v>2832</v>
       </c>
-      <c r="H1570" s="1" t="s">
-        <v>4961</v>
-      </c>
+      <c r="H1570" s="5"/>
       <c r="I1570" s="1" t="s">
         <v>2833</v>
       </c>
@@ -65214,9 +65176,7 @@
       <c r="G1571" s="1" t="s">
         <v>2834</v>
       </c>
-      <c r="H1571" s="1" t="s">
-        <v>4965</v>
-      </c>
+      <c r="H1571" s="5"/>
       <c r="I1571" s="1" t="s">
         <v>2835</v>
       </c>
@@ -65249,9 +65209,7 @@
       <c r="G1572" s="1" t="s">
         <v>2836</v>
       </c>
-      <c r="H1572" s="1" t="s">
-        <v>4964</v>
-      </c>
+      <c r="H1572" s="5"/>
       <c r="I1572" s="1" t="s">
         <v>2837</v>
       </c>
@@ -65284,9 +65242,7 @@
       <c r="G1573" s="1" t="s">
         <v>2838</v>
       </c>
-      <c r="H1573" s="1" t="s">
-        <v>4971</v>
-      </c>
+      <c r="H1573" s="5"/>
       <c r="I1573" s="1" t="s">
         <v>2839</v>
       </c>
@@ -65319,9 +65275,7 @@
       <c r="G1574" s="1" t="s">
         <v>2840</v>
       </c>
-      <c r="H1574" s="1" t="s">
-        <v>4976</v>
-      </c>
+      <c r="H1574" s="5"/>
       <c r="I1574" s="1" t="s">
         <v>2841</v>
       </c>
@@ -65354,9 +65308,7 @@
       <c r="G1575" s="1" t="s">
         <v>2842</v>
       </c>
-      <c r="H1575" s="1" t="s">
-        <v>4979</v>
-      </c>
+      <c r="H1575" s="5"/>
       <c r="I1575" s="1" t="s">
         <v>2843</v>
       </c>
@@ -65389,9 +65341,7 @@
       <c r="G1576" s="1" t="s">
         <v>2846</v>
       </c>
-      <c r="H1576" s="1" t="s">
-        <v>4958</v>
-      </c>
+      <c r="H1576" s="5"/>
       <c r="I1576" s="1" t="s">
         <v>2847</v>
       </c>
@@ -65424,9 +65374,7 @@
       <c r="G1577" s="1" t="s">
         <v>2848</v>
       </c>
-      <c r="H1577" s="1" t="s">
-        <v>4965</v>
-      </c>
+      <c r="H1577" s="5"/>
       <c r="I1577" s="1" t="s">
         <v>2849</v>
       </c>
